--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentthanetac-my.sharepoint.com/personal/30079051_student_ekcgroup_ac_uk/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20AC9356-562C-4427-8297-7058238E6DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{20AC9356-562C-4427-8297-7058238E6DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E17263D-CFA1-4F02-A580-463DC6233F81}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="459">
   <si>
     <t>Amplifier</t>
   </si>
@@ -1362,6 +1362,57 @@
   </si>
   <si>
     <t>BCC00145</t>
+  </si>
+  <si>
+    <t>Lavalier</t>
+  </si>
+  <si>
+    <t>BCC00147</t>
+  </si>
+  <si>
+    <t>Image transmitter</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>Ronin RS2</t>
+  </si>
+  <si>
+    <t>BCC00148</t>
+  </si>
+  <si>
+    <t>Aputure</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>MC 4-Light travel kit</t>
+  </si>
+  <si>
+    <t>BCC00149</t>
+  </si>
+  <si>
+    <t>Stablizer</t>
+  </si>
+  <si>
+    <t>Osmo Mobile 6</t>
+  </si>
+  <si>
+    <t>BCC00150</t>
+  </si>
+  <si>
+    <t>Slimline</t>
+  </si>
+  <si>
+    <t>AGFA Photo</t>
+  </si>
+  <si>
+    <t>APDV-1019</t>
+  </si>
+  <si>
+    <t>BCC00151</t>
   </si>
 </sst>
 </file>
@@ -1745,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC74E2-49FE-4940-A5E5-5C5F4A30102F}">
-  <dimension ref="A1:W294"/>
+  <dimension ref="A1:W296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,15 +1960,51 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>3</v>
@@ -1927,105 +2014,102 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="1"/>
+        <v>3</v>
+      </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>3</v>
@@ -2033,21 +2117,23 @@
       <c r="Q16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>419</v>
-      </c>
-      <c r="C17" s="1"/>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>417</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>418</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
@@ -2055,26 +2141,29 @@
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
@@ -2086,14 +2175,17 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>19</v>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>3</v>
@@ -2104,15 +2196,18 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>19</v>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>3</v>
@@ -2169,16 +2264,13 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>3</v>
@@ -2190,17 +2282,17 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>3</v>
@@ -2212,58 +2304,62 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>38</v>
+      <c r="B26" t="s">
+        <v>416</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>420</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D27" t="s">
+        <v>423</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>3</v>
@@ -2273,114 +2369,116 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D30" t="s">
+        <v>429</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="O30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>428</v>
-      </c>
+    <row r="31" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>427</v>
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>425</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>426</v>
+        <v>48</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="2:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>431</v>
-      </c>
+    <row r="32" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>429</v>
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>425</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>430</v>
+        <v>48</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>414</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>413</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2388,47 +2486,47 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>411</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>412</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -2436,18 +2534,23 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>409</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H36" s="1"/>
       <c r="O36" s="1"/>
@@ -2458,24 +2561,23 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="1"/>
+        <v>3</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2484,24 +2586,23 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>3</v>
+      </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2510,7 +2611,7 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
@@ -2522,7 +2623,7 @@
         <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>3</v>
@@ -2535,7 +2636,7 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -2547,11 +2648,12 @@
         <v>54</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -2560,7 +2662,7 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -2569,14 +2671,15 @@
         <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>58</v>
+        <v>394</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -2584,25 +2687,21 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>435</v>
-      </c>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>52</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2610,46 +2709,45 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>395</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>393</v>
+        <v>24</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>394</v>
+        <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>52</v>
+      </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>441</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>59</v>
+        <v>438</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>439</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>60</v>
+        <v>440</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2658,68 +2756,71 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>392</v>
+      </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="H45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>438</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>439</v>
+        <v>64</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>440</v>
+        <v>50</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H47" s="1"/>
       <c r="O47" s="1"/>
@@ -2728,22 +2829,21 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>402</v>
-      </c>
+    <row r="48" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H48" s="1"/>
       <c r="O48" s="1"/>
@@ -2752,21 +2852,21 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>3</v>
@@ -2778,7 +2878,10 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>401</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2786,13 +2889,13 @@
         <v>65</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="H50" s="1"/>
       <c r="O50" s="1"/>
@@ -2802,23 +2905,20 @@
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>397</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="H51" s="1"/>
       <c r="O51" s="1"/>
@@ -2828,23 +2928,20 @@
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>401</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="H52" s="1"/>
       <c r="O52" s="1"/>
@@ -2853,21 +2950,21 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="H53" s="1"/>
       <c r="O53" s="1"/>
@@ -2887,7 +2984,7 @@
         <v>73</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>3</v>
@@ -2899,7 +2996,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>72</v>
       </c>
@@ -2910,7 +3007,7 @@
         <v>73</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>3</v>
@@ -2924,19 +3021,19 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H56" s="1"/>
       <c r="O56" s="1"/>
@@ -2947,16 +3044,16 @@
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>3</v>
@@ -2970,19 +3067,19 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H58" s="1"/>
       <c r="O58" s="1"/>
@@ -2996,13 +3093,13 @@
         <v>77</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>3</v>
@@ -3015,20 +3112,23 @@
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>436</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H60" s="1"/>
       <c r="O60" s="1"/>
@@ -3038,20 +3138,23 @@
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>437</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H61" s="1"/>
       <c r="O61" s="1"/>
@@ -3061,23 +3164,20 @@
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>436</v>
-      </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H62" s="1"/>
       <c r="O62" s="1"/>
@@ -3087,20 +3187,17 @@
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>437</v>
-      </c>
       <c r="C63" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>52</v>
@@ -3120,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H64" s="1"/>
       <c r="O64" s="1"/>
@@ -3136,17 +3233,20 @@
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>291</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>52</v>
@@ -3160,16 +3260,16 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>52</v>
@@ -3183,7 +3283,7 @@
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>93</v>
@@ -3195,10 +3295,10 @@
         <v>95</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H67" s="1"/>
       <c r="O67" s="1"/>
@@ -3208,6 +3308,9 @@
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>290</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>93</v>
       </c>
@@ -3218,22 +3321,18 @@
         <v>95</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>289</v>
-      </c>
       <c r="C69" s="1" t="s">
         <v>93</v>
       </c>
@@ -3253,13 +3352,9 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>290</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>93</v>
       </c>
@@ -3303,7 +3398,10 @@
       <c r="Q71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>286</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>93</v>
       </c>
@@ -3311,10 +3409,10 @@
         <v>94</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>3</v>
@@ -3325,7 +3423,10 @@
       <c r="Q72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>287</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>93</v>
       </c>
@@ -3333,10 +3434,10 @@
         <v>94</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>3</v>
@@ -3349,7 +3450,7 @@
     </row>
     <row r="74" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>93</v>
@@ -3372,51 +3473,49 @@
       <c r="Q74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>94</v>
+        <v>361</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>99</v>
+        <v>362</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -3424,19 +3523,19 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>101</v>
+        <v>361</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>3</v>
@@ -3447,48 +3546,44 @@
       <c r="S77" s="1"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>363</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>364</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -3505,7 +3600,7 @@
         <v>105</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>3</v>
@@ -3527,7 +3622,7 @@
         <v>105</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>3</v>
@@ -3581,6 +3676,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
     </row>
     <row r="84" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
@@ -3603,6 +3699,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
     </row>
     <row r="85" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
@@ -3615,7 +3712,7 @@
         <v>105</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>3</v>
@@ -3638,7 +3735,7 @@
         <v>105</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>3</v>
@@ -3647,8 +3744,10 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
     </row>
     <row r="87" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
@@ -3670,8 +3769,10 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
       <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
     </row>
     <row r="88" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
@@ -3684,7 +3785,7 @@
         <v>105</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>3</v>
@@ -3709,7 +3810,7 @@
         <v>105</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>3</v>
@@ -3756,10 +3857,10 @@
         <v>78</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>3</v>
@@ -3781,10 +3882,10 @@
         <v>78</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>3</v>
@@ -3916,12 +4017,11 @@
       </c>
       <c r="H97" s="1"/>
       <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="W97" s="1"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
@@ -3941,14 +4041,16 @@
       </c>
       <c r="H98" s="1"/>
       <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="W98" s="1"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>273</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>104</v>
       </c>
@@ -3959,7 +4061,7 @@
         <v>110</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>3</v>
@@ -3973,6 +4075,9 @@
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>274</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>104</v>
       </c>
@@ -3983,7 +4088,7 @@
         <v>110</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>3</v>
@@ -3998,7 +4103,7 @@
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>273</v>
+        <v>415</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>104</v>
@@ -4024,9 +4129,6 @@
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>274</v>
-      </c>
       <c r="C102" s="1" t="s">
         <v>104</v>
       </c>
@@ -4037,7 +4139,7 @@
         <v>110</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>3</v>
@@ -4051,9 +4153,6 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>415</v>
-      </c>
       <c r="C103" s="1" t="s">
         <v>104</v>
       </c>
@@ -4064,7 +4163,7 @@
         <v>110</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>3</v>
@@ -4078,6 +4177,9 @@
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>275</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>104</v>
       </c>
@@ -4088,7 +4190,7 @@
         <v>110</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>3</v>
@@ -4102,6 +4204,9 @@
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>276</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>104</v>
       </c>
@@ -4112,7 +4217,7 @@
         <v>110</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>3</v>
@@ -4127,7 +4232,7 @@
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>104</v>
@@ -4139,7 +4244,7 @@
         <v>110</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>3</v>
@@ -4154,7 +4259,7 @@
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>104</v>
@@ -4166,22 +4271,22 @@
         <v>110</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H107" s="1"/>
       <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>104</v>
@@ -4200,15 +4305,15 @@
       </c>
       <c r="H108" s="1"/>
       <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>104</v>
@@ -4235,7 +4340,7 @@
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>104</v>
@@ -4262,19 +4367,19 @@
     </row>
     <row r="111" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>271</v>
+        <v>458</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>110</v>
+        <v>456</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>115</v>
+        <v>457</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>3</v>
@@ -4287,21 +4392,19 @@
       <c r="S111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>272</v>
+        <v>451</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>110</v>
+        <v>448</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>115</v>
+        <v>450</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>3</v>
@@ -4315,11 +4418,22 @@
       <c r="W112" s="1"/>
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C113" s="1"/>
+      <c r="B113" t="s">
+        <v>447</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="H113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
@@ -4328,24 +4442,22 @@
       <c r="S113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>292</v>
+        <v>454</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>36</v>
+        <v>445</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>118</v>
+        <v>453</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="H114" s="1"/>
       <c r="O114" s="1"/>
@@ -4357,7 +4469,7 @@
     </row>
     <row r="115" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>116</v>
@@ -4380,12 +4492,11 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
-      <c r="T115" s="1"/>
       <c r="W115" s="1"/>
     </row>
     <row r="116" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>116</v>
@@ -4413,7 +4524,7 @@
     </row>
     <row r="117" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>116</v>
@@ -4440,6 +4551,9 @@
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>295</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>116</v>
       </c>
@@ -4539,7 +4653,7 @@
       <c r="T121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C122" s="1" t="s">
         <v>116</v>
       </c>
@@ -4550,10 +4664,10 @@
         <v>36</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="H122" s="1"/>
       <c r="O122" s="1"/>
@@ -4575,10 +4689,10 @@
         <v>36</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H123" s="1"/>
       <c r="O123" s="1"/>
@@ -4641,20 +4755,21 @@
     </row>
     <row r="126" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C126" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
@@ -4664,20 +4779,17 @@
       <c r="W126" s="1"/>
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>301</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>3</v>
@@ -4692,7 +4804,7 @@
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>129</v>
@@ -4719,7 +4831,7 @@
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>129</v>
@@ -4746,7 +4858,7 @@
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>129</v>
@@ -4773,7 +4885,7 @@
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>129</v>
@@ -4800,7 +4912,7 @@
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>129</v>
@@ -4820,12 +4932,14 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
       <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
       <c r="W132" s="1"/>
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>129</v>
@@ -4845,13 +4959,12 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="W133" s="1"/>
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>129</v>
@@ -4868,10 +4981,16 @@
       <c r="G134" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="W134" s="1"/>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>129</v>
@@ -4891,7 +5010,7 @@
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>129</v>
@@ -4911,7 +5030,7 @@
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>129</v>
@@ -4931,7 +5050,7 @@
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>129</v>
@@ -4951,7 +5070,7 @@
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>129</v>
@@ -4971,7 +5090,7 @@
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>129</v>
@@ -4991,7 +5110,7 @@
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>129</v>
@@ -5011,7 +5130,7 @@
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>129</v>
@@ -5031,19 +5150,19 @@
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>3</v>
@@ -5051,7 +5170,7 @@
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>129</v>
@@ -5069,7 +5188,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>312</v>
+      </c>
       <c r="C145" s="1" t="s">
         <v>129</v>
       </c>
@@ -5086,22 +5208,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C146" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C147" s="1" t="s">
         <v>130</v>
       </c>
@@ -5116,7 +5240,7 @@
       </c>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C148" s="1" t="s">
         <v>130</v>
       </c>
@@ -5131,7 +5255,7 @@
       </c>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C149" s="1" t="s">
         <v>130</v>
       </c>
@@ -5146,67 +5270,67 @@
       </c>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C150" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C151" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C152" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C153" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C154" s="1" t="s">
         <v>130</v>
       </c>
@@ -5221,7 +5345,7 @@
       </c>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C155" s="1" t="s">
         <v>130</v>
       </c>
@@ -5236,7 +5360,7 @@
       </c>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C156" s="1" t="s">
         <v>130</v>
       </c>
@@ -5251,7 +5375,7 @@
       </c>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C157" s="1" t="s">
         <v>130</v>
       </c>
@@ -5266,7 +5390,7 @@
       </c>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C158" s="1" t="s">
         <v>130</v>
       </c>
@@ -5281,7 +5405,7 @@
       </c>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C159" s="1" t="s">
         <v>130</v>
       </c>
@@ -5296,7 +5420,7 @@
       </c>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C160" s="1" t="s">
         <v>130</v>
       </c>
@@ -5346,13 +5470,13 @@
         <v>130</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H163" s="1"/>
     </row>
@@ -5372,26 +5496,23 @@
       <c r="H164" s="1"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B165" t="s">
-        <v>319</v>
-      </c>
       <c r="C165" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>130</v>
@@ -5400,7 +5521,7 @@
         <v>146</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>133</v>
@@ -5408,17 +5529,20 @@
       <c r="H166" s="1"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>321</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H167" s="1"/>
     </row>
@@ -5430,7 +5554,7 @@
         <v>149</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>150</v>
@@ -5442,10 +5566,10 @@
         <v>130</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>150</v>
@@ -5460,7 +5584,7 @@
         <v>152</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>150</v>
@@ -5475,7 +5599,7 @@
         <v>152</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>150</v>
@@ -5487,13 +5611,13 @@
         <v>130</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H172" s="1"/>
     </row>
@@ -5508,7 +5632,7 @@
         <v>155</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H173" s="1"/>
     </row>
@@ -5517,84 +5641,73 @@
         <v>130</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C175" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
-        <v>357</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="H175" s="1"/>
-      <c r="I175">
-        <v>4</v>
-      </c>
-      <c r="J175" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>357</v>
+      </c>
       <c r="C176" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I176" s="1">
-        <v>6</v>
-      </c>
-      <c r="J176" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H176" s="1"/>
+      <c r="I176">
+        <v>4</v>
+      </c>
+      <c r="J176" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B177" t="s">
-        <v>279</v>
-      </c>
       <c r="C177" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I177" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>166</v>
@@ -5602,7 +5715,7 @@
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>162</v>
@@ -5626,35 +5739,35 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I179" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>162</v>
@@ -5663,13 +5776,13 @@
         <v>163</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="I180" s="1">
         <v>6</v>
@@ -5678,9 +5791,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>162</v>
@@ -5692,10 +5805,10 @@
         <v>164</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>298</v>
+        <v>172</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="I181" s="1">
         <v>6</v>
@@ -5705,6 +5818,9 @@
       </c>
     </row>
     <row r="182" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>283</v>
+      </c>
       <c r="C182" s="1" t="s">
         <v>162</v>
       </c>
@@ -5712,25 +5828,22 @@
         <v>163</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="I182" s="1">
         <v>6</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B183" t="s">
-        <v>281</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C183" s="1" t="s">
         <v>162</v>
       </c>
@@ -5738,10 +5851,10 @@
         <v>163</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>148</v>
@@ -5753,53 +5866,53 @@
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="I184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>164</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="I185" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>166</v>
@@ -5807,57 +5920,57 @@
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="I186" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>278</v>
+      </c>
       <c r="C187" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="I187" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="188" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" t="s">
-        <v>358</v>
-      </c>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C188" s="1" t="s">
         <v>162</v>
       </c>
@@ -5865,13 +5978,13 @@
         <v>181</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="I188" s="1">
         <v>6</v>
@@ -5882,7 +5995,7 @@
     </row>
     <row r="189" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>162</v>
@@ -5894,7 +6007,7 @@
         <v>164</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>359</v>
+        <v>184</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>185</v>
@@ -5908,7 +6021,7 @@
     </row>
     <row r="190" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>162</v>
@@ -5917,13 +6030,13 @@
         <v>181</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="I190" s="1">
         <v>6</v>
@@ -5934,7 +6047,7 @@
     </row>
     <row r="191" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>162</v>
@@ -5943,11 +6056,13 @@
         <v>181</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F191" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="G191" s="1" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="I191" s="1">
         <v>6</v>
@@ -5956,9 +6071,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>162</v>
@@ -5967,13 +6082,11 @@
         <v>181</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F192" s="1"/>
       <c r="G192" s="1" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="I192" s="1">
         <v>6</v>
@@ -5984,28 +6097,33 @@
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>65</v>
+        <v>162</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K193" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="I193" s="1">
+        <v>6</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>65</v>
@@ -6022,10 +6140,11 @@
       <c r="H194" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="K194" s="1"/>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>65</v>
@@ -6045,7 +6164,7 @@
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>65</v>
@@ -6065,7 +6184,7 @@
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>65</v>
@@ -6085,7 +6204,7 @@
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>65</v>
@@ -6105,7 +6224,7 @@
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>65</v>
@@ -6125,7 +6244,7 @@
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>65</v>
@@ -6145,7 +6264,7 @@
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>65</v>
@@ -6165,7 +6284,7 @@
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>65</v>
@@ -6185,7 +6304,7 @@
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>65</v>
@@ -6205,7 +6324,7 @@
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>65</v>
@@ -6224,6 +6343,9 @@
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>352</v>
+      </c>
       <c r="C205" s="1" t="s">
         <v>65</v>
       </c>
@@ -6296,34 +6418,33 @@
         <v>65</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K209" s="1"/>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C210" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K210" s="1"/>
     </row>
@@ -6332,31 +6453,28 @@
         <v>65</v>
       </c>
       <c r="E211" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C212" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="F212" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K211" s="1"/>
-    </row>
-    <row r="212" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B212" t="s">
-        <v>333</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>3</v>
@@ -6368,7 +6486,7 @@
     </row>
     <row r="213" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>200</v>
@@ -6385,10 +6503,11 @@
       <c r="H213" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="K213" s="1"/>
     </row>
     <row r="214" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>200</v>
@@ -6407,6 +6526,9 @@
       </c>
     </row>
     <row r="215" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>337</v>
+      </c>
       <c r="C215" s="1" t="s">
         <v>200</v>
       </c>
@@ -6414,28 +6536,27 @@
         <v>201</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K215" s="1"/>
     </row>
     <row r="216" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C216" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>191</v>
@@ -6447,10 +6568,10 @@
         <v>200</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>3</v>
@@ -6461,20 +6582,17 @@
       <c r="K217" s="1"/>
     </row>
     <row r="218" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B218" t="s">
-        <v>380</v>
-      </c>
       <c r="C218" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>191</v>
@@ -6482,6 +6600,9 @@
       <c r="K218" s="1"/>
     </row>
     <row r="219" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>380</v>
+      </c>
       <c r="C219" s="1" t="s">
         <v>200</v>
       </c>
@@ -6497,6 +6618,7 @@
       <c r="H219" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="K219" s="1"/>
     </row>
     <row r="220" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C220" s="1" t="s">
@@ -6516,20 +6638,17 @@
       </c>
     </row>
     <row r="221" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B221" t="s">
-        <v>335</v>
-      </c>
       <c r="C221" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>191</v>
@@ -6537,75 +6656,79 @@
     </row>
     <row r="222" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>336</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F223" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G223" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="H223" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K222" s="1"/>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C223" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C224" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C225" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G225" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K225" s="1"/>
     </row>
     <row r="226" spans="3:11" x14ac:dyDescent="0.3">
@@ -6613,17 +6736,15 @@
         <v>213</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G226" s="1"/>
       <c r="K226" s="1"/>
     </row>
     <row r="227" spans="3:11" x14ac:dyDescent="0.3">
@@ -6631,15 +6752,17 @@
         <v>213</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G227" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K227" s="1"/>
     </row>
     <row r="228" spans="3:11" x14ac:dyDescent="0.3">
@@ -6647,17 +6770,15 @@
         <v>213</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G228" s="1"/>
       <c r="K228" s="1"/>
     </row>
     <row r="229" spans="3:11" x14ac:dyDescent="0.3">
@@ -6676,6 +6797,7 @@
       <c r="G229" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K229" s="1"/>
     </row>
     <row r="230" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C230" s="1" t="s">
@@ -6984,44 +7106,37 @@
       </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B248" t="s">
-        <v>374</v>
-      </c>
       <c r="C248" s="1" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K248" s="1"/>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>403</v>
+        <v>117</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>3</v>
@@ -7033,19 +7148,19 @@
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>406</v>
+        <v>230</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>3</v>
@@ -7053,33 +7168,34 @@
       <c r="H250" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K250" s="1"/>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>230</v>
+        <v>406</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>24</v>
+        <v>371</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="252" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>117</v>
@@ -7088,22 +7204,21 @@
         <v>230</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>233</v>
+        <v>381</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K252" s="1"/>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>117</v>
@@ -7112,10 +7227,10 @@
         <v>230</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>52</v>
@@ -7127,7 +7242,7 @@
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>117</v>
@@ -7136,13 +7251,13 @@
         <v>230</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>393</v>
+        <v>36</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>398</v>
+        <v>234</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>229</v>
@@ -7151,19 +7266,19 @@
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>201</v>
+        <v>393</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>3</v>
@@ -7175,22 +7290,22 @@
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>229</v>
@@ -7198,20 +7313,23 @@
       <c r="K256" s="1"/>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>377</v>
+      </c>
       <c r="C257" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>229</v>
@@ -7219,20 +7337,17 @@
       <c r="K257" s="1"/>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B258" t="s">
-        <v>378</v>
-      </c>
       <c r="C258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>3</v>
@@ -7243,17 +7358,20 @@
       <c r="K258" s="1"/>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>378</v>
+      </c>
       <c r="C259" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>3</v>
@@ -7264,29 +7382,28 @@
       <c r="K259" s="1"/>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>443</v>
+      </c>
       <c r="C260" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="D260" s="1"/>
       <c r="E260" s="1" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>246</v>
+        <v>442</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K260" s="1"/>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B261" t="s">
-        <v>343</v>
-      </c>
       <c r="C261" s="1" t="s">
         <v>117</v>
       </c>
@@ -7294,10 +7411,10 @@
         <v>244</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>3</v>
@@ -7315,10 +7432,10 @@
         <v>244</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>3</v>
@@ -7326,11 +7443,10 @@
       <c r="H262" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K262" s="1"/>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>117</v>
@@ -7339,13 +7455,13 @@
         <v>244</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>229</v>
@@ -7353,9 +7469,6 @@
       <c r="K263" s="1"/>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B264" t="s">
-        <v>341</v>
-      </c>
       <c r="C264" s="1" t="s">
         <v>117</v>
       </c>
@@ -7363,21 +7476,22 @@
         <v>244</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K264" s="1"/>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>117</v>
@@ -7397,10 +7511,11 @@
       <c r="H265" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K265" s="1"/>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>117</v>
@@ -7409,10 +7524,10 @@
         <v>244</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>52</v>
@@ -7420,11 +7535,10 @@
       <c r="H266" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K266" s="1"/>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>117</v>
@@ -7433,10 +7547,10 @@
         <v>244</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>52</v>
@@ -7447,7 +7561,7 @@
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>117</v>
@@ -7467,10 +7581,11 @@
       <c r="H268" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K268" s="1"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>117</v>
@@ -7493,7 +7608,7 @@
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>117</v>
@@ -7516,7 +7631,7 @@
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>117</v>
@@ -7539,7 +7654,7 @@
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>117</v>
@@ -7562,7 +7677,7 @@
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>117</v>
@@ -7570,8 +7685,12 @@
       <c r="D273" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
+      <c r="E273" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="G273" s="1" t="s">
         <v>52</v>
       </c>
@@ -7581,7 +7700,7 @@
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>117</v>
@@ -7589,8 +7708,12 @@
       <c r="D274" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
+      <c r="E274" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="G274" s="1" t="s">
         <v>52</v>
       </c>
@@ -7600,7 +7723,7 @@
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>117</v>
@@ -7608,14 +7731,10 @@
       <c r="D275" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E275" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
       <c r="G275" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>229</v>
@@ -7623,7 +7742,7 @@
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>117</v>
@@ -7631,14 +7750,10 @@
       <c r="D276" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
       <c r="G276" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>229</v>
@@ -7646,7 +7761,7 @@
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>117</v>
@@ -7658,7 +7773,7 @@
         <v>365</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>3</v>
@@ -7669,7 +7784,7 @@
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>117</v>
@@ -7678,10 +7793,10 @@
         <v>244</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>3</v>
@@ -7692,7 +7807,7 @@
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>117</v>
@@ -7701,22 +7816,21 @@
         <v>244</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K279" s="1"/>
+        <v>229</v>
+      </c>
     </row>
     <row r="280" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>117</v>
@@ -7725,140 +7839,146 @@
         <v>244</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>386</v>
+        <v>117</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>388</v>
+        <v>254</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H281" s="1"/>
+      <c r="H281" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>386</v>
+        <v>117</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>389</v>
+        <v>254</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
+        <v>391</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H283" s="1"/>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>390</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
         <v>385</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
-      <c r="G283" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H283" s="1" t="s">
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H285" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C284" s="1" t="s">
+    <row r="286" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C286" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E284" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F284" s="1" t="s">
+      <c r="F286" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G284" s="1"/>
-      <c r="H284" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K284" s="1"/>
-    </row>
-    <row r="285" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C285" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H285" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K285" s="1"/>
-    </row>
-    <row r="286" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C286" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="G286" s="1"/>
       <c r="H286" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="287" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K286" s="1"/>
+    </row>
+    <row r="287" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="1" t="s">
         <v>258</v>
       </c>
@@ -7877,6 +7997,7 @@
       <c r="H287" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K287" s="1"/>
     </row>
     <row r="288" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C288" s="1" t="s">
@@ -7918,39 +8039,44 @@
         <v>229</v>
       </c>
     </row>
-    <row r="290" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C290" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F290" t="s">
-        <v>262</v>
+        <v>36</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K290" s="1"/>
-    </row>
-    <row r="291" spans="3:11" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="291" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C291" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F291" t="s">
-        <v>262</v>
+        <v>36</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>148</v>
+        <v>52</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="292" spans="3:11" x14ac:dyDescent="0.3">
@@ -7969,39 +8095,74 @@
       <c r="G292" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="K292" s="1"/>
     </row>
     <row r="293" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C293" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="F293" t="s">
+        <v>262</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K293" s="1"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="294" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C294" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F294" t="s">
+        <v>262</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="295" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C295" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E294" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F294" s="1" t="s">
+      <c r="F295" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G294" s="1" t="s">
+      <c r="G295" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K295" s="1"/>
+    </row>
+    <row r="296" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C296" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G296" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8012,6 +8173,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="be4b84db-ddb0-4566-ba2a-b4a91c564564" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C63F065253D140BC36C0BFAC9E5CCB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a7d041b75f0aef9723abdd79864b860">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be4b84db-ddb0-4566-ba2a-b4a91c564564" xmlns:ns4="c7fca772-0c2e-4006-87c6-c0d148e2faef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5469f7e878fd4f25b4726e9f5f4a6557" ns3:_="" ns4:_="">
     <xsd:import namespace="be4b84db-ddb0-4566-ba2a-b4a91c564564"/>
@@ -8244,24 +8422,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBCE17A2-BF90-48CE-BC94-C031CC4946E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="be4b84db-ddb0-4566-ba2a-b4a91c564564"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c7fca772-0c2e-4006-87c6-c0d148e2faef"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="be4b84db-ddb0-4566-ba2a-b4a91c564564" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1349A917-DFE0-43EC-8BB7-725EB4926255}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BE12FB-D3BC-41BE-9EA5-1266CF15D468}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8278,29 +8464,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1349A917-DFE0-43EC-8BB7-725EB4926255}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBCE17A2-BF90-48CE-BC94-C031CC4946E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="be4b84db-ddb0-4566-ba2a-b4a91c564564"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c7fca772-0c2e-4006-87c6-c0d148e2faef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentthanetac-my.sharepoint.com/personal/30079051_student_ekcgroup_ac_uk/Documents/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30079051\OneDrive - EKC Group\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{20AC9356-562C-4427-8297-7058238E6DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E17263D-CFA1-4F02-A580-463DC6233F81}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE705C4-4F24-462F-B0A6-CBF9137B4578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="473">
   <si>
     <t>Amplifier</t>
   </si>
@@ -842,27 +842,6 @@
     <t>SL-1210MK2</t>
   </si>
   <si>
-    <t>BCC00006</t>
-  </si>
-  <si>
-    <t>BCC00007</t>
-  </si>
-  <si>
-    <t>BCC00008</t>
-  </si>
-  <si>
-    <t>BCC00009</t>
-  </si>
-  <si>
-    <t>BCC00010</t>
-  </si>
-  <si>
-    <t>BCC00011</t>
-  </si>
-  <si>
-    <t>BCC00012</t>
-  </si>
-  <si>
     <t>BCC00014</t>
   </si>
   <si>
@@ -1283,18 +1262,12 @@
     <t>BCC00132</t>
   </si>
   <si>
-    <t>BCC00133</t>
-  </si>
-  <si>
     <t>BCC00134</t>
   </si>
   <si>
     <t>Dunlop</t>
   </si>
   <si>
-    <t>GCB95F CLASSIC CRY BABY</t>
-  </si>
-  <si>
     <t>BCC00135</t>
   </si>
   <si>
@@ -1413,6 +1386,75 @@
   </si>
   <si>
     <t>BCC00151</t>
+  </si>
+  <si>
+    <t>BCC00155</t>
+  </si>
+  <si>
+    <t>BCC00156</t>
+  </si>
+  <si>
+    <t>BCC00157</t>
+  </si>
+  <si>
+    <t>BCC00154</t>
+  </si>
+  <si>
+    <t>BCC00159</t>
+  </si>
+  <si>
+    <t>BCC00158</t>
+  </si>
+  <si>
+    <t>BCC00153</t>
+  </si>
+  <si>
+    <t>BCC00152</t>
+  </si>
+  <si>
+    <t>BCC00161</t>
+  </si>
+  <si>
+    <t>BCC00160</t>
+  </si>
+  <si>
+    <t>BCC00165</t>
+  </si>
+  <si>
+    <t>BCC00162</t>
+  </si>
+  <si>
+    <t>BCC00163</t>
+  </si>
+  <si>
+    <t>BCC00164</t>
+  </si>
+  <si>
+    <t>BCC00166</t>
+  </si>
+  <si>
+    <t>BCC00167</t>
+  </si>
+  <si>
+    <t>BCC00168</t>
+  </si>
+  <si>
+    <t>BCC00169</t>
+  </si>
+  <si>
+    <t>BCC00172</t>
+  </si>
+  <si>
+    <t>BCC00170</t>
+  </si>
+  <si>
+    <t>BCC00174</t>
+  </si>
+  <si>
+    <t>BCC00175</t>
+  </si>
+  <si>
+    <t>Eurolive B210D</t>
   </si>
 </sst>
 </file>
@@ -1796,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC74E2-49FE-4940-A5E5-5C5F4A30102F}">
-  <dimension ref="A1:W296"/>
+  <dimension ref="A1:W297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2084,16 +2126,18 @@
       <c r="Q14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>470</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>417</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>3</v>
@@ -2102,14 +2146,17 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>472</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>3</v>
@@ -2122,18 +2169,15 @@
         <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
@@ -2155,15 +2199,15 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>3</v>
@@ -2174,18 +2218,15 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
+    <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>3</v>
@@ -2264,13 +2305,16 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>3</v>
@@ -2282,17 +2326,14 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>42</v>
+      <c r="C25" t="s">
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>3</v>
@@ -2304,137 +2345,137 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>416</v>
-      </c>
       <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" t="s">
-        <v>423</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="O27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D28" t="s">
+        <v>414</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="O28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
-        <v>427</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="O29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="2:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="O30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>422</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>420</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>416</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
+        <v>421</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2461,24 +2502,21 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>414</v>
-      </c>
+    <row r="33" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>412</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>413</v>
+        <v>48</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2486,21 +2524,25 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>407</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
+        <v>405</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>51</v>
+        <v>406</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>157</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2508,23 +2550,18 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>396</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H35" s="1"/>
       <c r="O35" s="1"/>
@@ -2535,7 +2572,7 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>45</v>
@@ -2561,23 +2598,24 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2586,7 +2624,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -2611,7 +2649,7 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
@@ -2623,7 +2661,7 @@
         <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>3</v>
@@ -2636,7 +2674,7 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -2653,7 +2691,6 @@
       <c r="G40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -2662,7 +2699,7 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -2671,13 +2708,13 @@
         <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>393</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>394</v>
+        <v>58</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="H41" s="1"/>
       <c r="O41" s="1"/>
@@ -2687,21 +2724,25 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>388</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>386</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>60</v>
+        <v>387</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2730,24 +2771,21 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>441</v>
-      </c>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>438</v>
+        <v>59</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>439</v>
+        <v>24</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>440</v>
+        <v>60</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2755,24 +2793,25 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>430</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>62</v>
+        <v>431</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>3</v>
+      </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -2781,20 +2820,20 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="H46" s="1"/>
       <c r="O46" s="1"/>
@@ -2803,24 +2842,22 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H47" s="1"/>
       <c r="O47" s="1"/>
@@ -2830,6 +2867,9 @@
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>393</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2852,21 +2892,18 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>397</v>
-      </c>
+    <row r="49" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>3</v>
@@ -2880,22 +2917,22 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="H50" s="1"/>
       <c r="O50" s="1"/>
@@ -2905,6 +2942,9 @@
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>394</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2929,19 +2969,19 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="H52" s="1"/>
       <c r="O52" s="1"/>
@@ -2950,7 +2990,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>72</v>
       </c>
@@ -2961,7 +3001,7 @@
         <v>73</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>3</v>
@@ -2973,7 +3013,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>72</v>
       </c>
@@ -2984,7 +3024,7 @@
         <v>73</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>3</v>
@@ -3021,19 +3061,19 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H56" s="1"/>
       <c r="O56" s="1"/>
@@ -3050,13 +3090,13 @@
         <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H57" s="1"/>
       <c r="O57" s="1"/>
@@ -3067,16 +3107,16 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>3</v>
@@ -3090,16 +3130,16 @@
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>3</v>
@@ -3112,23 +3152,20 @@
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>436</v>
-      </c>
       <c r="C60" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H60" s="1"/>
       <c r="O60" s="1"/>
@@ -3139,7 +3176,7 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
@@ -3164,20 +3201,23 @@
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>428</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H62" s="1"/>
       <c r="O62" s="1"/>
@@ -3194,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H63" s="1"/>
       <c r="O63" s="1"/>
@@ -3233,20 +3273,17 @@
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>291</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>52</v>
@@ -3259,6 +3296,9 @@
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>284</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>93</v>
       </c>
@@ -3282,9 +3322,6 @@
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>289</v>
-      </c>
       <c r="C67" s="1" t="s">
         <v>93</v>
       </c>
@@ -3295,10 +3332,10 @@
         <v>95</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H67" s="1"/>
       <c r="O67" s="1"/>
@@ -3309,7 +3346,7 @@
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>93</v>
@@ -3330,9 +3367,13 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>283</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>93</v>
       </c>
@@ -3398,10 +3439,7 @@
       <c r="Q71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>286</v>
-      </c>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>93</v>
       </c>
@@ -3409,10 +3447,10 @@
         <v>94</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>3</v>
@@ -3425,7 +3463,7 @@
     </row>
     <row r="73" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>93</v>
@@ -3450,7 +3488,7 @@
     </row>
     <row r="74" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>93</v>
@@ -3473,25 +3511,26 @@
       <c r="Q74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>360</v>
+        <v>281</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -3499,19 +3538,19 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>361</v>
+        <v>101</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>3</v>
@@ -3523,19 +3562,19 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>3</v>
@@ -3546,28 +3585,33 @@
       <c r="S77" s="1"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>357</v>
+      </c>
       <c r="C78" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>106</v>
+        <v>355</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>454</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>104</v>
       </c>
@@ -3590,6 +3634,9 @@
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>459</v>
+      </c>
       <c r="C80" s="1" t="s">
         <v>104</v>
       </c>
@@ -3600,7 +3647,7 @@
         <v>105</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>3</v>
@@ -3611,7 +3658,10 @@
       <c r="Q80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>451</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>104</v>
       </c>
@@ -3633,7 +3683,10 @@
       <c r="Q81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>455</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>104</v>
       </c>
@@ -3655,7 +3708,7 @@
       <c r="Q82" s="1"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>104</v>
       </c>
@@ -3676,9 +3729,8 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>104</v>
       </c>
@@ -3701,7 +3753,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>104</v>
       </c>
@@ -3712,7 +3764,7 @@
         <v>105</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>3</v>
@@ -3724,7 +3776,10 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>452</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>104</v>
       </c>
@@ -3744,12 +3799,13 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>453</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>104</v>
       </c>
@@ -3774,7 +3830,7 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>104</v>
       </c>
@@ -3785,7 +3841,7 @@
         <v>105</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>3</v>
@@ -3799,7 +3855,10 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>450</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>104</v>
       </c>
@@ -3824,7 +3883,10 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>456</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>104</v>
       </c>
@@ -3849,7 +3911,10 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
     </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>457</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>104</v>
       </c>
@@ -3857,10 +3922,10 @@
         <v>78</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>3</v>
@@ -3874,7 +3939,10 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>458</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>104</v>
       </c>
@@ -3899,7 +3967,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
     </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>104</v>
       </c>
@@ -3924,7 +3992,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
     </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>104</v>
       </c>
@@ -3949,7 +4017,7 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>104</v>
       </c>
@@ -3974,7 +4042,7 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
     </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>104</v>
       </c>
@@ -4017,11 +4085,12 @@
       </c>
       <c r="H97" s="1"/>
       <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="W97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
@@ -4048,9 +4117,6 @@
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>273</v>
-      </c>
       <c r="C99" s="1" t="s">
         <v>104</v>
       </c>
@@ -4061,7 +4127,7 @@
         <v>110</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>3</v>
@@ -4076,7 +4142,7 @@
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>104</v>
@@ -4103,7 +4169,7 @@
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>104</v>
@@ -4129,6 +4195,9 @@
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>462</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>104</v>
       </c>
@@ -4139,7 +4208,7 @@
         <v>110</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>3</v>
@@ -4153,6 +4222,9 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>468</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>104</v>
       </c>
@@ -4178,7 +4250,7 @@
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>275</v>
+        <v>469</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>104</v>
@@ -4190,7 +4262,7 @@
         <v>110</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>3</v>
@@ -4205,7 +4277,7 @@
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>104</v>
@@ -4232,7 +4304,7 @@
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>104</v>
@@ -4244,7 +4316,7 @@
         <v>110</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>3</v>
@@ -4259,7 +4331,7 @@
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>269</v>
+        <v>465</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>104</v>
@@ -4278,15 +4350,15 @@
       </c>
       <c r="H107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>270</v>
+        <v>463</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>104</v>
@@ -4313,7 +4385,7 @@
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>271</v>
+        <v>467</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>104</v>
@@ -4340,7 +4412,7 @@
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>272</v>
+        <v>464</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>104</v>
@@ -4367,19 +4439,19 @@
     </row>
     <row r="111" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>456</v>
+        <v>110</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>457</v>
+        <v>115</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>3</v>
@@ -4392,19 +4464,21 @@
       <c r="S111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D112" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E112" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>3</v>
@@ -4417,19 +4491,19 @@
       <c r="S112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>3</v>
@@ -4444,20 +4518,20 @@
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H114" s="1"/>
       <c r="O114" s="1"/>
@@ -4467,24 +4541,22 @@
       <c r="S114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>292</v>
+        <v>445</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>36</v>
+        <v>436</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>118</v>
+        <v>444</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="H115" s="1"/>
       <c r="O115" s="1"/>
@@ -4496,7 +4568,7 @@
     </row>
     <row r="116" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>116</v>
@@ -4519,12 +4591,11 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
-      <c r="T116" s="1"/>
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>116</v>
@@ -4552,7 +4623,7 @@
     </row>
     <row r="118" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>116</v>
@@ -4579,6 +4650,9 @@
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>288</v>
+      </c>
       <c r="C119" s="1" t="s">
         <v>116</v>
       </c>
@@ -4678,7 +4752,7 @@
       <c r="T122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C123" s="1" t="s">
         <v>116</v>
       </c>
@@ -4689,10 +4763,10 @@
         <v>36</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="H123" s="1"/>
       <c r="O123" s="1"/>
@@ -4714,10 +4788,10 @@
         <v>36</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H124" s="1"/>
       <c r="O124" s="1"/>
@@ -4780,20 +4854,21 @@
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C127" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
@@ -4803,20 +4878,17 @@
       <c r="W127" s="1"/>
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>301</v>
-      </c>
       <c r="C128" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>3</v>
@@ -4831,7 +4903,7 @@
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>129</v>
@@ -4858,7 +4930,7 @@
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>129</v>
@@ -4885,7 +4957,7 @@
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>129</v>
@@ -4912,7 +4984,7 @@
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>129</v>
@@ -4939,7 +5011,7 @@
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>129</v>
@@ -4959,12 +5031,14 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
       <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
       <c r="W133" s="1"/>
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>129</v>
@@ -4984,13 +5058,12 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="W134" s="1"/>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>129</v>
@@ -5007,10 +5080,16 @@
       <c r="G135" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="W135" s="1"/>
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>129</v>
@@ -5030,7 +5109,7 @@
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>129</v>
@@ -5050,7 +5129,7 @@
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>129</v>
@@ -5070,7 +5149,7 @@
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>129</v>
@@ -5090,7 +5169,7 @@
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>129</v>
@@ -5110,7 +5189,7 @@
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>129</v>
@@ -5130,7 +5209,7 @@
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>129</v>
@@ -5150,7 +5229,7 @@
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>129</v>
@@ -5176,13 +5255,13 @@
         <v>129</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>3</v>
@@ -5190,7 +5269,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>129</v>
@@ -5209,6 +5288,9 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>305</v>
+      </c>
       <c r="C146" s="1" t="s">
         <v>129</v>
       </c>
@@ -5227,18 +5309,20 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C147" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H147" s="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C148" s="1" t="s">
@@ -5290,13 +5374,13 @@
         <v>130</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="H151" s="1"/>
     </row>
@@ -5305,13 +5389,13 @@
         <v>130</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="H152" s="1"/>
     </row>
@@ -5320,13 +5404,13 @@
         <v>130</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="H153" s="1"/>
     </row>
@@ -5335,13 +5419,13 @@
         <v>130</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="H154" s="1"/>
     </row>
@@ -5435,7 +5519,7 @@
       </c>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C161" s="1" t="s">
         <v>130</v>
       </c>
@@ -5450,7 +5534,7 @@
       </c>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C162" s="1" t="s">
         <v>130</v>
       </c>
@@ -5465,7 +5549,7 @@
       </c>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C163" s="1" t="s">
         <v>130</v>
       </c>
@@ -5480,22 +5564,22 @@
       </c>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C164" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C165" s="1" t="s">
         <v>130</v>
       </c>
@@ -5510,27 +5594,24 @@
       </c>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B166" t="s">
-        <v>319</v>
-      </c>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C166" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>130</v>
@@ -5539,29 +5620,32 @@
         <v>146</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>147</v>
+        <v>313</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>133</v>
       </c>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>314</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C169" s="1" t="s">
         <v>130</v>
       </c>
@@ -5569,29 +5653,29 @@
         <v>149</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>150</v>
       </c>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C170" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>150</v>
       </c>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C171" s="1" t="s">
         <v>130</v>
       </c>
@@ -5599,14 +5683,14 @@
         <v>152</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>150</v>
       </c>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C172" s="1" t="s">
         <v>130</v>
       </c>
@@ -5614,29 +5698,29 @@
         <v>152</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>150</v>
       </c>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C173" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C174" s="1" t="s">
         <v>130</v>
       </c>
@@ -5647,93 +5731,82 @@
         <v>155</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C175" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C176" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
-        <v>357</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="H176" s="1"/>
-      <c r="I176">
-        <v>4</v>
-      </c>
-      <c r="J176" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>350</v>
+      </c>
       <c r="C177" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I177" s="1">
-        <v>6</v>
-      </c>
-      <c r="J177" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H177" s="1"/>
+      <c r="I177">
+        <v>4</v>
+      </c>
+      <c r="J177" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B178" t="s">
-        <v>279</v>
-      </c>
       <c r="C178" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I178" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>166</v>
@@ -5741,7 +5814,7 @@
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>162</v>
@@ -5765,35 +5838,35 @@
         <v>166</v>
       </c>
     </row>
-    <row r="180" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I180" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>162</v>
@@ -5802,13 +5875,13 @@
         <v>163</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="I181" s="1">
         <v>6</v>
@@ -5817,9 +5890,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>162</v>
@@ -5831,10 +5904,10 @@
         <v>164</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>298</v>
+        <v>172</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="I182" s="1">
         <v>6</v>
@@ -5844,6 +5917,9 @@
       </c>
     </row>
     <row r="183" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>276</v>
+      </c>
       <c r="C183" s="1" t="s">
         <v>162</v>
       </c>
@@ -5851,25 +5927,22 @@
         <v>163</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="I183" s="1">
         <v>6</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B184" t="s">
-        <v>281</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C184" s="1" t="s">
         <v>162</v>
       </c>
@@ -5877,10 +5950,10 @@
         <v>163</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>148</v>
@@ -5892,53 +5965,53 @@
         <v>176</v>
       </c>
     </row>
-    <row r="185" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="I185" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>164</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="I186" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>166</v>
@@ -5946,57 +6019,57 @@
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="I187" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>271</v>
+      </c>
       <c r="C188" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="I188" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" t="s">
-        <v>358</v>
-      </c>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C189" s="1" t="s">
         <v>162</v>
       </c>
@@ -6004,13 +6077,13 @@
         <v>181</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="I189" s="1">
         <v>6</v>
@@ -6021,7 +6094,7 @@
     </row>
     <row r="190" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>162</v>
@@ -6033,7 +6106,7 @@
         <v>164</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>359</v>
+        <v>184</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>185</v>
@@ -6047,7 +6120,7 @@
     </row>
     <row r="191" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>162</v>
@@ -6056,13 +6129,13 @@
         <v>181</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="I191" s="1">
         <v>6</v>
@@ -6073,7 +6146,7 @@
     </row>
     <row r="192" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>162</v>
@@ -6082,11 +6155,13 @@
         <v>181</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F192" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="G192" s="1" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="I192" s="1">
         <v>6</v>
@@ -6095,9 +6170,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>162</v>
@@ -6106,13 +6181,11 @@
         <v>181</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F193" s="1"/>
       <c r="G193" s="1" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="I193" s="1">
         <v>6</v>
@@ -6123,28 +6196,33 @@
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>65</v>
+        <v>162</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K194" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="I194" s="1">
+        <v>6</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>65</v>
@@ -6161,10 +6239,11 @@
       <c r="H195" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="K195" s="1"/>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>65</v>
@@ -6184,7 +6263,7 @@
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>65</v>
@@ -6204,7 +6283,7 @@
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>65</v>
@@ -6224,7 +6303,7 @@
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>65</v>
@@ -6244,7 +6323,7 @@
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>65</v>
@@ -6264,7 +6343,7 @@
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>65</v>
@@ -6284,7 +6363,7 @@
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>65</v>
@@ -6304,7 +6383,7 @@
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>65</v>
@@ -6324,7 +6403,7 @@
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>65</v>
@@ -6344,7 +6423,7 @@
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>65</v>
@@ -6363,6 +6442,9 @@
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>345</v>
+      </c>
       <c r="C206" s="1" t="s">
         <v>65</v>
       </c>
@@ -6435,34 +6517,33 @@
         <v>65</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K210" s="1"/>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C211" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K211" s="1"/>
     </row>
@@ -6471,31 +6552,28 @@
         <v>65</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K212" s="1"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C213" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F213" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K212" s="1"/>
-    </row>
-    <row r="213" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B213" t="s">
-        <v>333</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>3</v>
@@ -6507,7 +6585,7 @@
     </row>
     <row r="214" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>200</v>
@@ -6524,10 +6602,11 @@
       <c r="H214" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="K214" s="1"/>
     </row>
     <row r="215" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>200</v>
@@ -6546,6 +6625,9 @@
       </c>
     </row>
     <row r="216" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>330</v>
+      </c>
       <c r="C216" s="1" t="s">
         <v>200</v>
       </c>
@@ -6553,28 +6635,27 @@
         <v>201</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K216" s="1"/>
     </row>
     <row r="217" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C217" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>191</v>
@@ -6586,10 +6667,10 @@
         <v>200</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>3</v>
@@ -6600,20 +6681,17 @@
       <c r="K218" s="1"/>
     </row>
     <row r="219" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B219" t="s">
-        <v>380</v>
-      </c>
       <c r="C219" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>191</v>
@@ -6621,6 +6699,9 @@
       <c r="K219" s="1"/>
     </row>
     <row r="220" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>373</v>
+      </c>
       <c r="C220" s="1" t="s">
         <v>200</v>
       </c>
@@ -6636,6 +6717,7 @@
       <c r="H220" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="K220" s="1"/>
     </row>
     <row r="221" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C221" s="1" t="s">
@@ -6655,20 +6737,17 @@
       </c>
     </row>
     <row r="222" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
-        <v>335</v>
-      </c>
       <c r="C222" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>191</v>
@@ -6676,75 +6755,79 @@
     </row>
     <row r="223" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E223" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>329</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="F224" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H223" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K223" s="1"/>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C224" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C225" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C226" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G226" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K226" s="1"/>
     </row>
     <row r="227" spans="3:11" x14ac:dyDescent="0.3">
@@ -6752,17 +6835,15 @@
         <v>213</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G227" s="1"/>
       <c r="K227" s="1"/>
     </row>
     <row r="228" spans="3:11" x14ac:dyDescent="0.3">
@@ -6770,15 +6851,17 @@
         <v>213</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G228" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K228" s="1"/>
     </row>
     <row r="229" spans="3:11" x14ac:dyDescent="0.3">
@@ -6786,17 +6869,15 @@
         <v>213</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G229" s="1"/>
       <c r="K229" s="1"/>
     </row>
     <row r="230" spans="3:11" x14ac:dyDescent="0.3">
@@ -6815,6 +6896,7 @@
       <c r="G230" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K230" s="1"/>
     </row>
     <row r="231" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C231" s="1" t="s">
@@ -7123,44 +7205,37 @@
       </c>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B249" t="s">
-        <v>374</v>
-      </c>
       <c r="C249" s="1" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K249" s="1"/>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>403</v>
+        <v>117</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>3</v>
@@ -7172,19 +7247,19 @@
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>406</v>
+        <v>230</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>3</v>
@@ -7192,33 +7267,34 @@
       <c r="H251" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K251" s="1"/>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>230</v>
+        <v>399</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>24</v>
+        <v>364</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="253" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>117</v>
@@ -7227,22 +7303,21 @@
         <v>230</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>233</v>
+        <v>374</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K253" s="1"/>
-    </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>117</v>
@@ -7251,10 +7326,10 @@
         <v>230</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>52</v>
@@ -7266,7 +7341,7 @@
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>117</v>
@@ -7275,13 +7350,13 @@
         <v>230</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>393</v>
+        <v>36</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>398</v>
+        <v>234</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>229</v>
@@ -7290,19 +7365,19 @@
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>201</v>
+        <v>386</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>236</v>
+        <v>391</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>3</v>
@@ -7314,22 +7389,22 @@
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>229</v>
@@ -7337,20 +7412,23 @@
       <c r="K257" s="1"/>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>370</v>
+      </c>
       <c r="C258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>229</v>
@@ -7358,20 +7436,17 @@
       <c r="K258" s="1"/>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B259" t="s">
-        <v>378</v>
-      </c>
       <c r="C259" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>3</v>
@@ -7383,44 +7458,47 @@
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
-        <v>443</v>
+        <v>371</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D260" s="1"/>
+      <c r="D260" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="E260" s="1" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="K260" s="1"/>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>434</v>
+      </c>
       <c r="C261" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="D261" s="1"/>
       <c r="E261" s="1" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>246</v>
+        <v>433</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="K261" s="1"/>
     </row>
@@ -7443,11 +7521,9 @@
       <c r="H262" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K262" s="1"/>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B263" t="s">
-        <v>343</v>
-      </c>
       <c r="C263" s="1" t="s">
         <v>117</v>
       </c>
@@ -7455,10 +7531,10 @@
         <v>244</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>3</v>
@@ -7466,9 +7542,11 @@
       <c r="H263" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K263" s="1"/>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>336</v>
+      </c>
       <c r="C264" s="1" t="s">
         <v>117</v>
       </c>
@@ -7476,10 +7554,10 @@
         <v>244</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>3</v>
@@ -7490,9 +7568,6 @@
       <c r="K264" s="1"/>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B265" t="s">
-        <v>340</v>
-      </c>
       <c r="C265" s="1" t="s">
         <v>117</v>
       </c>
@@ -7500,13 +7575,13 @@
         <v>244</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>229</v>
@@ -7515,7 +7590,7 @@
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>117</v>
@@ -7535,10 +7610,11 @@
       <c r="H266" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K266" s="1"/>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>117</v>
@@ -7561,7 +7637,7 @@
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>117</v>
@@ -7570,10 +7646,10 @@
         <v>244</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>52</v>
@@ -7581,11 +7657,10 @@
       <c r="H268" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K268" s="1"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>117</v>
@@ -7605,10 +7680,11 @@
       <c r="H269" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K269" s="1"/>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>117</v>
@@ -7631,7 +7707,7 @@
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>117</v>
@@ -7654,7 +7730,7 @@
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>117</v>
@@ -7677,7 +7753,7 @@
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>117</v>
@@ -7700,7 +7776,7 @@
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>117</v>
@@ -7723,7 +7799,7 @@
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>117</v>
@@ -7731,8 +7807,12 @@
       <c r="D275" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
+      <c r="E275" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="G275" s="1" t="s">
         <v>52</v>
       </c>
@@ -7742,7 +7822,7 @@
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>117</v>
@@ -7761,7 +7841,7 @@
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>117</v>
@@ -7769,14 +7849,10 @@
       <c r="D277" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E277" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
       <c r="G277" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>229</v>
@@ -7784,7 +7860,7 @@
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>117</v>
@@ -7793,10 +7869,10 @@
         <v>244</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>3</v>
@@ -7807,7 +7883,7 @@
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>117</v>
@@ -7816,10 +7892,10 @@
         <v>244</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>3</v>
@@ -7830,7 +7906,7 @@
     </row>
     <row r="280" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>117</v>
@@ -7839,10 +7915,10 @@
         <v>244</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>3</v>
@@ -7853,7 +7929,7 @@
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>117</v>
@@ -7862,22 +7938,21 @@
         <v>244</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K281" s="1"/>
+        <v>229</v>
+      </c>
     </row>
     <row r="282" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>117</v>
@@ -7897,109 +7972,112 @@
       <c r="H282" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="K282" s="1"/>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>386</v>
+        <v>117</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>388</v>
+        <v>254</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H283" s="1"/>
-      <c r="K283" s="1"/>
-    </row>
-    <row r="284" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H283" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H284" s="1"/>
+      <c r="K284" s="1"/>
+    </row>
+    <row r="285" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>117</v>
+        <v>379</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
+        <v>380</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="G285" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H285" s="1" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>378</v>
+      </c>
       <c r="C286" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E286" s="1" t="s">
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C287" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F286" s="1" t="s">
+      <c r="F287" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G286" s="1"/>
-      <c r="H286" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K286" s="1"/>
-    </row>
-    <row r="287" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C287" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="G287" s="1"/>
       <c r="H287" s="1" t="s">
         <v>229</v>
       </c>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="1" t="s">
         <v>258</v>
       </c>
@@ -8018,6 +8096,7 @@
       <c r="H288" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K288" s="1"/>
     </row>
     <row r="289" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C289" s="1" t="s">
@@ -8079,23 +8158,25 @@
         <v>229</v>
       </c>
     </row>
-    <row r="292" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C292" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F292" t="s">
-        <v>262</v>
+        <v>36</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K292" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="293" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C293" s="1" t="s">
@@ -8113,6 +8194,7 @@
       <c r="G293" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="K293" s="1"/>
     </row>
     <row r="294" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C294" s="1" t="s">
@@ -8133,21 +8215,20 @@
     </row>
     <row r="295" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C295" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="F295" t="s">
+        <v>262</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K295" s="1"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="296" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C296" s="1" t="s">
@@ -8163,6 +8244,24 @@
         <v>267</v>
       </c>
       <c r="G296" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K296" s="1"/>
+    </row>
+    <row r="297" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C297" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G297" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8181,15 +8280,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9C63F065253D140BC36C0BFAC9E5CCB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a7d041b75f0aef9723abdd79864b860">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be4b84db-ddb0-4566-ba2a-b4a91c564564" xmlns:ns4="c7fca772-0c2e-4006-87c6-c0d148e2faef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5469f7e878fd4f25b4726e9f5f4a6557" ns3:_="" ns4:_="">
     <xsd:import namespace="be4b84db-ddb0-4566-ba2a-b4a91c564564"/>
@@ -8422,6 +8512,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBCE17A2-BF90-48CE-BC94-C031CC4946E4}">
   <ds:schemaRefs>
@@ -8440,14 +8539,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1349A917-DFE0-43EC-8BB7-725EB4926255}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BE12FB-D3BC-41BE-9EA5-1266CF15D468}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8464,4 +8555,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1349A917-DFE0-43EC-8BB7-725EB4926255}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30079051\OneDrive - EKC Group\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE705C4-4F24-462F-B0A6-CBF9137B4578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B00A88-D275-4AFE-9CF7-C2FD4DA63171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="495">
   <si>
     <t>Amplifier</t>
   </si>
@@ -407,9 +407,6 @@
     <t>Panasonic</t>
   </si>
   <si>
-    <t>AG-UX10</t>
-  </si>
-  <si>
     <t>Huion</t>
   </si>
   <si>
@@ -1455,6 +1452,75 @@
   </si>
   <si>
     <t>Eurolive B210D</t>
+  </si>
+  <si>
+    <t>AG-UX180</t>
+  </si>
+  <si>
+    <t>BCC00178</t>
+  </si>
+  <si>
+    <t>BCC00177</t>
+  </si>
+  <si>
+    <t>BCC00179</t>
+  </si>
+  <si>
+    <t>BCC00181</t>
+  </si>
+  <si>
+    <t>BCC00182</t>
+  </si>
+  <si>
+    <t>BCC00183</t>
+  </si>
+  <si>
+    <t>BCC00184</t>
+  </si>
+  <si>
+    <t>Camcorder</t>
+  </si>
+  <si>
+    <t>HDR-CX405</t>
+  </si>
+  <si>
+    <t>BCC00185</t>
+  </si>
+  <si>
+    <t>BCC00186</t>
+  </si>
+  <si>
+    <t>BCC00187</t>
+  </si>
+  <si>
+    <t>BCC00188</t>
+  </si>
+  <si>
+    <t>BCC00191</t>
+  </si>
+  <si>
+    <t>Tuner</t>
+  </si>
+  <si>
+    <t>DrumDial</t>
+  </si>
+  <si>
+    <t>Black/Silver</t>
+  </si>
+  <si>
+    <t>BCC00194</t>
+  </si>
+  <si>
+    <t>BCC00190</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>V-Screen VS-2 FineHD</t>
+  </si>
+  <si>
+    <t>BCC00195</t>
   </si>
 </sst>
 </file>
@@ -1496,13 +1562,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1838,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC74E2-49FE-4940-A5E5-5C5F4A30102F}">
-  <dimension ref="A1:W297"/>
+  <dimension ref="A1:W306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="G190" sqref="G190"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1888,10 +1958,10 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2128,7 +2198,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -2137,7 +2207,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>3</v>
@@ -2147,7 +2217,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -2156,7 +2226,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>3</v>
@@ -2368,7 +2438,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
@@ -2389,22 +2459,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2413,16 +2483,16 @@
     </row>
     <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>3</v>
@@ -2434,22 +2504,22 @@
     </row>
     <row r="30" spans="2:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2458,22 +2528,22 @@
     </row>
     <row r="31" spans="2:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2526,22 +2596,22 @@
     </row>
     <row r="34" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2572,7 +2642,7 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>45</v>
@@ -2598,7 +2668,7 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
@@ -2624,7 +2694,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -2649,7 +2719,7 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
@@ -2674,7 +2744,7 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -2699,7 +2769,7 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -2725,7 +2795,7 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>45</v>
@@ -2734,13 +2804,13 @@
         <v>46</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H42" s="1"/>
       <c r="O42" s="1"/>
@@ -2795,19 +2865,19 @@
     </row>
     <row r="45" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>3</v>
@@ -2820,7 +2890,7 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>61</v>
@@ -2844,7 +2914,7 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>63</v>
@@ -2868,7 +2938,7 @@
     </row>
     <row r="48" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -2917,7 +2987,7 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>61</v>
@@ -2943,7 +3013,7 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>0</v>
@@ -3176,7 +3246,7 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
@@ -3202,7 +3272,7 @@
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
@@ -3297,7 +3367,7 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>93</v>
@@ -3346,7 +3416,7 @@
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>93</v>
@@ -3372,7 +3442,7 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>93</v>
@@ -3463,7 +3533,7 @@
     </row>
     <row r="73" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>93</v>
@@ -3488,7 +3558,7 @@
     </row>
     <row r="74" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>93</v>
@@ -3513,7 +3583,7 @@
     </row>
     <row r="75" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>93</v>
@@ -3538,7 +3608,7 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>100</v>
@@ -3562,19 +3632,19 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>3</v>
@@ -3586,19 +3656,19 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>3</v>
@@ -3610,7 +3680,7 @@
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>104</v>
@@ -3635,7 +3705,7 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>104</v>
@@ -3658,9 +3728,9 @@
       <c r="Q80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>104</v>
@@ -3683,9 +3753,9 @@
       <c r="Q81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>104</v>
@@ -3708,7 +3778,10 @@
       <c r="Q82" s="1"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>479</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>104</v>
       </c>
@@ -3730,7 +3803,10 @@
       <c r="Q83" s="1"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>451</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>104</v>
       </c>
@@ -3741,7 +3817,7 @@
         <v>105</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>3</v>
@@ -3753,7 +3829,10 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>452</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>104</v>
       </c>
@@ -3764,7 +3843,7 @@
         <v>105</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>3</v>
@@ -3773,12 +3852,14 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>104</v>
@@ -3799,12 +3880,14 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>104</v>
@@ -3816,7 +3899,7 @@
         <v>105</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>3</v>
@@ -3830,7 +3913,10 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>455</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>104</v>
       </c>
@@ -3841,7 +3927,7 @@
         <v>105</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>3</v>
@@ -3855,9 +3941,9 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>104</v>
@@ -3883,9 +3969,9 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>104</v>
@@ -3894,10 +3980,10 @@
         <v>78</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>3</v>
@@ -3911,10 +3997,7 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>457</v>
-      </c>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>104</v>
       </c>
@@ -3922,10 +4005,10 @@
         <v>78</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>3</v>
@@ -3939,10 +4022,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>458</v>
-      </c>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>104</v>
       </c>
@@ -3967,7 +4047,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>104</v>
       </c>
@@ -3992,7 +4072,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4017,7 +4097,7 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>104</v>
       </c>
@@ -4035,14 +4115,13 @@
       </c>
       <c r="H95" s="1"/>
       <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="T95" s="1"/>
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>104</v>
       </c>
@@ -4060,14 +4139,16 @@
       </c>
       <c r="H96" s="1"/>
       <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="W96" s="1"/>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>459</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>104</v>
       </c>
@@ -4078,21 +4159,23 @@
         <v>110</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H97" s="1"/>
       <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="W97" s="1"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>460</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>104</v>
       </c>
@@ -4103,7 +4186,7 @@
         <v>110</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>3</v>
@@ -4117,6 +4200,9 @@
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>461</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>104</v>
       </c>
@@ -4127,7 +4213,7 @@
         <v>110</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>3</v>
@@ -4142,7 +4228,7 @@
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>104</v>
@@ -4154,7 +4240,7 @@
         <v>110</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>3</v>
@@ -4169,7 +4255,7 @@
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>104</v>
@@ -4181,7 +4267,7 @@
         <v>110</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>3</v>
@@ -4196,7 +4282,7 @@
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>462</v>
+        <v>267</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>104</v>
@@ -4208,7 +4294,7 @@
         <v>110</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>3</v>
@@ -4223,7 +4309,7 @@
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>468</v>
+        <v>268</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>104</v>
@@ -4235,7 +4321,7 @@
         <v>110</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>3</v>
@@ -4250,7 +4336,7 @@
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>104</v>
@@ -4262,7 +4348,7 @@
         <v>110</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>3</v>
@@ -4277,7 +4363,7 @@
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>268</v>
+        <v>462</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>104</v>
@@ -4289,22 +4375,22 @@
         <v>110</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H105" s="1"/>
       <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>269</v>
+        <v>466</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>104</v>
@@ -4316,22 +4402,22 @@
         <v>110</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H106" s="1"/>
       <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>104</v>
@@ -4350,15 +4436,15 @@
       </c>
       <c r="H107" s="1"/>
       <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>104</v>
@@ -4385,19 +4471,19 @@
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>115</v>
+        <v>447</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>3</v>
@@ -4410,21 +4496,19 @@
       <c r="S109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>115</v>
+        <v>440</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>3</v>
@@ -4439,19 +4523,17 @@
     </row>
     <row r="111" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>110</v>
+        <v>435</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>115</v>
+        <v>436</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>3</v>
@@ -4466,22 +4548,20 @@
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>446</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H112" s="1"/>
       <c r="O112" s="1"/>
@@ -4491,22 +4571,22 @@
       <c r="S112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
+        <v>491</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H113" s="1"/>
       <c r="O113" s="1"/>
@@ -4516,19 +4596,21 @@
       <c r="S113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
+        <v>494</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="F114" s="1" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>3</v>
@@ -4541,22 +4623,24 @@
       <c r="S114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>445</v>
+        <v>284</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D115" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>436</v>
+        <v>36</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>444</v>
+        <v>118</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H115" s="1"/>
       <c r="O115" s="1"/>
@@ -4591,6 +4675,7 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -4650,9 +4735,6 @@
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>288</v>
-      </c>
       <c r="C119" s="1" t="s">
         <v>116</v>
       </c>
@@ -4752,7 +4834,7 @@
       <c r="T122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C123" s="1" t="s">
         <v>116</v>
       </c>
@@ -4763,10 +4845,10 @@
         <v>36</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="H123" s="1"/>
       <c r="O123" s="1"/>
@@ -4788,10 +4870,10 @@
         <v>36</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H124" s="1"/>
       <c r="O124" s="1"/>
@@ -4853,22 +4935,24 @@
       <c r="W126" s="1"/>
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>473</v>
+      </c>
       <c r="C127" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>121</v>
+        <v>472</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H127" s="1"/>
+        <v>3</v>
+      </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
@@ -4878,6 +4962,9 @@
       <c r="W127" s="1"/>
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>474</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>104</v>
       </c>
@@ -4888,7 +4975,7 @@
         <v>122</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>123</v>
+        <v>472</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>3</v>
@@ -4903,19 +4990,19 @@
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>294</v>
+        <v>475</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>126</v>
+        <v>472</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>3</v>
@@ -4930,19 +5017,19 @@
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>295</v>
+        <v>476</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>126</v>
+        <v>472</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>3</v>
@@ -4957,19 +5044,19 @@
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>296</v>
+        <v>477</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>126</v>
+        <v>472</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>3</v>
@@ -4984,19 +5071,19 @@
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>297</v>
+        <v>482</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>124</v>
+        <v>480</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>126</v>
+        <v>481</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>3</v>
@@ -5009,48 +5096,48 @@
       <c r="T132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>298</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="W133" s="1"/>
+    <row r="133" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="W133" s="4"/>
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>299</v>
+        <v>484</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>124</v>
+        <v>480</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>126</v>
+        <v>481</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>3</v>
@@ -5058,24 +5145,26 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
       <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
       <c r="W134" s="1"/>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>300</v>
+        <v>485</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>124</v>
+        <v>480</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>126</v>
+        <v>481</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>3</v>
@@ -5085,183 +5174,237 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
       <c r="W135" s="1"/>
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>301</v>
+        <v>490</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>124</v>
+        <v>480</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>126</v>
+        <v>481</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="W136" s="1"/>
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G137" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="W137" s="1"/>
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G138" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="W138" s="1"/>
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G139" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="W139" s="1"/>
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G140" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="W140" s="1"/>
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G141" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="W141" s="1"/>
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G142" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="W142" s="1"/>
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G143" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="W143" s="1"/>
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>3</v>
@@ -5269,19 +5412,19 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>3</v>
@@ -5289,1096 +5432,1095 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
+        <v>302</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
         <v>305</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>307</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>308</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>309</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>310</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F146" s="1" t="s">
+      <c r="G153" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C147" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C148" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C149" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C150" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C151" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C152" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C153" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C154" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H154" s="1"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C155" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H155" s="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C156" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E156" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C157" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E157" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H157" s="1"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C158" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E158" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C159" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E159" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C160" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C161" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H161" s="1"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C162" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="H162" s="1"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C163" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C164" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H164" s="1"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C165" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C166" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H166" s="1"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
-        <v>312</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B168" t="s">
-        <v>314</v>
-      </c>
       <c r="C168" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H168" s="1"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C169" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H169" s="1"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C170" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H170" s="1"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C171" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H171" s="1"/>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C172" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H172" s="1"/>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C173" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H173" s="1"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C174" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H174" s="1"/>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>311</v>
+      </c>
       <c r="C175" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="H175" s="1"/>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>313</v>
+      </c>
       <c r="C176" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="H176" s="1"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B177" t="s">
-        <v>350</v>
-      </c>
       <c r="C177" s="1" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="H177" s="1"/>
-      <c r="I177">
-        <v>4</v>
-      </c>
-      <c r="J177" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C178" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C179" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C180" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C181" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C182" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C183" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C184" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>349</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H185" s="1"/>
+      <c r="I185">
+        <v>4</v>
+      </c>
+      <c r="J185" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C186" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="F186" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="G186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I186" s="1">
+        <v>6</v>
+      </c>
+      <c r="J186" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I178" s="1">
-        <v>6</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B179" t="s">
-        <v>272</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I179" s="1">
-        <v>4</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B180" t="s">
-        <v>273</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I180" s="1">
-        <v>4</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B181" t="s">
-        <v>346</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I181" s="1">
-        <v>6</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B182" t="s">
-        <v>348</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I182" s="1">
-        <v>6</v>
-      </c>
-      <c r="J182" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B183" t="s">
-        <v>276</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I183" s="1">
-        <v>6</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C184" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I184" s="1">
-        <v>6</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B185" t="s">
-        <v>274</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I185" s="1">
-        <v>6</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="186" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B186" t="s">
-        <v>275</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I186" s="1">
-        <v>4</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="I187" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F188" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="I188" s="1">
         <v>4</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>345</v>
+      </c>
       <c r="C189" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="I189" s="1">
         <v>6</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E190" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="I190" s="1">
         <v>6</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="191" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C191" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E191" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="I191" s="1">
         <v>6</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" t="s">
-        <v>277</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C192" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E192" s="1" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="I192" s="1">
         <v>6</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F193" s="1"/>
+      <c r="F193" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="G193" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="I193" s="1">
         <v>6</v>
       </c>
       <c r="J193" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>274</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B194" t="s">
-        <v>349</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E194" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="I194" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K195" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="I195" s="1">
+        <v>6</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>191</v>
+        <v>132</v>
+      </c>
+      <c r="I196" s="1">
+        <v>4</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B197" t="s">
-        <v>318</v>
-      </c>
       <c r="C197" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="I197" s="1">
+        <v>6</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="I198" s="1">
+        <v>6</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>190</v>
+        <v>351</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="I199" s="1">
+        <v>6</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>190</v>
+        <v>291</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="I200" s="1">
+        <v>6</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="F201" s="1"/>
       <c r="G201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="I201" s="1">
+        <v>6</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>191</v>
+        <v>156</v>
+      </c>
+      <c r="I202" s="1">
+        <v>6</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.3">
@@ -6389,388 +6531,400 @@
         <v>65</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="G203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H203" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="K203" s="1"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="G204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H204" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="G205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H205" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E206" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="G206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H206" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>319</v>
+      </c>
       <c r="C207" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="G207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>320</v>
+      </c>
       <c r="C208" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="G208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H208" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>321</v>
+      </c>
       <c r="C209" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="G209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H209" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>322</v>
+      </c>
       <c r="C210" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E210" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="G210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H210" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>314</v>
+      </c>
       <c r="C211" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K211" s="1"/>
+        <v>190</v>
+      </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>323</v>
+      </c>
       <c r="C212" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K212" s="1"/>
+        <v>190</v>
+      </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>324</v>
+      </c>
       <c r="C213" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E213" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>344</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C215" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C216" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C217" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C218" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C219" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K219" s="1"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C220" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K220" s="1"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C221" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="G221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K221" s="1"/>
+    </row>
+    <row r="222" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>325</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K213" s="1"/>
-    </row>
-    <row r="214" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B214" t="s">
-        <v>326</v>
-      </c>
-      <c r="C214" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K214" s="1"/>
-    </row>
-    <row r="215" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B215" t="s">
-        <v>327</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="216" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B216" t="s">
-        <v>330</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="217" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C217" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K217" s="1"/>
-    </row>
-    <row r="218" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C218" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K218" s="1"/>
-    </row>
-    <row r="219" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C219" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K219" s="1"/>
-    </row>
-    <row r="220" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B220" t="s">
-        <v>373</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K220" s="1"/>
-    </row>
-    <row r="221" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C221" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="222" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C222" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="G222" s="1" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="K222" s="1"/>
     </row>
     <row r="223" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F223" s="1" t="s">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="224" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -6778,248 +6932,260 @@
         <v>329</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="F224" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C225" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K225" s="1"/>
+    </row>
+    <row r="226" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C226" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C227" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>372</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C229" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C230" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>327</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>328</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="G232" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="H232" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C233" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K224" s="1"/>
-    </row>
-    <row r="225" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C225" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="F233" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K225" s="1"/>
-    </row>
-    <row r="226" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C226" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K226" s="1"/>
-    </row>
-    <row r="227" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C227" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G227" s="1"/>
-      <c r="K227" s="1"/>
-    </row>
-    <row r="228" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C228" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K228" s="1"/>
-    </row>
-    <row r="229" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C229" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G229" s="1"/>
-      <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C230" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K230" s="1"/>
-    </row>
-    <row r="231" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C231" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C232" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C233" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G233" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C234" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C235" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="3:11" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="G235" s="1"/>
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C236" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C237" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="3:11" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="G237" s="1"/>
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C238" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>53</v>
@@ -7028,15 +7194,16 @@
         <v>54</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C239" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>53</v>
@@ -7045,15 +7212,15 @@
         <v>54</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C240" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>53</v>
@@ -7062,15 +7229,15 @@
         <v>54</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C241" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>53</v>
@@ -7079,15 +7246,15 @@
         <v>54</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C242" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>53</v>
@@ -7096,15 +7263,15 @@
         <v>54</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C243" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>53</v>
@@ -7113,15 +7280,15 @@
         <v>54</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C244" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>53</v>
@@ -7130,15 +7297,15 @@
         <v>54</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C245" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>53</v>
@@ -7147,15 +7314,15 @@
         <v>54</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C246" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>53</v>
@@ -7164,15 +7331,15 @@
         <v>54</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C247" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>53</v>
@@ -7181,15 +7348,15 @@
         <v>54</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C248" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>53</v>
@@ -7198,15 +7365,15 @@
         <v>54</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C249" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>53</v>
@@ -7215,1059 +7382,1213 @@
         <v>54</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B250" t="s">
-        <v>367</v>
-      </c>
+    <row r="250" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C250" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H250" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K250" s="1"/>
-    </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B251" t="s">
-        <v>397</v>
-      </c>
+    </row>
+    <row r="251" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C251" s="1" t="s">
-        <v>396</v>
+        <v>212</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H251" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K251" s="1"/>
-    </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B252" t="s">
-        <v>401</v>
-      </c>
+    </row>
+    <row r="252" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C252" s="1" t="s">
-        <v>398</v>
+        <v>212</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>399</v>
+        <v>53</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>364</v>
+        <v>54</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>400</v>
+        <v>224</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H252" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B253" t="s">
-        <v>375</v>
-      </c>
+    </row>
+    <row r="253" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C253" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="254" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B254" t="s">
-        <v>372</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C254" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K254" s="1"/>
-    </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B255" t="s">
-        <v>369</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C255" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K255" s="1"/>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B256" t="s">
-        <v>392</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C256" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>386</v>
+        <v>54</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>391</v>
+        <v>224</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K256" s="1"/>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B257" t="s">
-        <v>368</v>
-      </c>
       <c r="C257" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K257" s="1"/>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H258" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K258" s="1"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>396</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K258" s="1"/>
-    </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C259" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E259" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K259" s="1"/>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>230</v>
+        <v>398</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>201</v>
+        <v>363</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>243</v>
+        <v>399</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K260" s="1"/>
+        <v>228</v>
+      </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D261" s="1"/>
+      <c r="D261" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="E261" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K261" s="1"/>
-    </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>371</v>
+      </c>
       <c r="C262" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K262" s="1"/>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>368</v>
+      </c>
       <c r="C263" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K263" s="1"/>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>24</v>
+        <v>385</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K264" s="1"/>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>367</v>
+      </c>
       <c r="C265" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K265" s="1"/>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K266" s="1"/>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B267" t="s">
-        <v>334</v>
-      </c>
       <c r="C267" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K267" s="1"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K268" s="1"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>332</v>
+        <v>433</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="D269" s="1"/>
       <c r="E269" s="1" t="s">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>253</v>
+        <v>432</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="K269" s="1"/>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B270" t="s">
-        <v>339</v>
-      </c>
       <c r="C270" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D270" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E270" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="F270" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K270" s="1"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B271" t="s">
-        <v>340</v>
-      </c>
       <c r="C271" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D271" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E271" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="F271" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K272" s="1"/>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B273" t="s">
-        <v>342</v>
-      </c>
       <c r="C273" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K273" s="1"/>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K274" s="1"/>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="G276" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="G277" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K277" s="1"/>
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>358</v>
+        <v>251</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>359</v>
+        <v>252</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>358</v>
+        <v>251</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>359</v>
+        <v>252</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="280" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>358</v>
+        <v>251</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>362</v>
+        <v>252</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>365</v>
+        <v>252</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="282" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K282" s="1"/>
+        <v>228</v>
+      </c>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>379</v>
+        <v>117</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>381</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
       <c r="G284" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H284" s="1"/>
-      <c r="K284" s="1"/>
-    </row>
-    <row r="285" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>379</v>
+        <v>117</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>382</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
       <c r="G285" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="G286" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="287" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>362</v>
+      </c>
       <c r="C287" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E287" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>360</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>365</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>375</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K290" s="1"/>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>376</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>383</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H292" s="1"/>
+      <c r="K292" s="1"/>
+    </row>
+    <row r="293" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>382</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
+        <v>377</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C295" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F295" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F287" s="1" t="s">
+      <c r="G295" s="1"/>
+      <c r="H295" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K295" s="1"/>
+    </row>
+    <row r="296" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K287" s="1"/>
-    </row>
-    <row r="288" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C288" s="1" t="s">
+      <c r="D296" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F296" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="G296" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K296" s="1"/>
+    </row>
+    <row r="297" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C297" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F288" s="1" t="s">
+      <c r="F297" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="298" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C298" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="299" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C299" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="300" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C300" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C301" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G288" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H288" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K288" s="1"/>
-    </row>
-    <row r="289" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C289" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F289" s="1" t="s">
+      <c r="D301" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F301" t="s">
+        <v>261</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K301" s="1"/>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C302" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G289" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H289" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="290" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C290" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F290" s="1" t="s">
+      <c r="D302" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F302" t="s">
+        <v>261</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C303" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G290" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="291" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C291" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="292" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C292" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="293" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C293" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E303" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F303" t="s">
         <v>261</v>
       </c>
-      <c r="E293" s="1" t="s">
+      <c r="G303" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C304" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F293" t="s">
-        <v>262</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K293" s="1"/>
-    </row>
-    <row r="294" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C294" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E294" s="1" t="s">
+      <c r="D304" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K304" s="1"/>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C305" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F294" t="s">
-        <v>262</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="295" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C295" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F295" t="s">
-        <v>262</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="296" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C296" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="E305" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E296" s="1" t="s">
+      <c r="F305" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F296" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K296" s="1"/>
-    </row>
-    <row r="297" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C297" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>3</v>
+      <c r="G305" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
+        <v>486</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
